--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>本周任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>找办法做手机录像，为demo演示做准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成20个组合技能文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督促画手完成强化界面与升阶界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认野外图外包开始制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -440,7 +452,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -493,7 +505,9 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -502,7 +516,9 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -511,7 +527,9 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>

--- a/工作计划.xlsx
+++ b/工作计划.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>本周任务</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,15 +54,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成20个组合技能文档</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>督促画手完成强化界面与升阶界面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认野外图外包开始制作</t>
+    <t>未找到清晰版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>督促画手完成卡框，卡背。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马匹与战斗特效跟踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪10套3阶卡牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善20个组合技能的卡牌分配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟踪野外图外包制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,7 +464,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -498,7 +510,9 @@
         <v>8</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
@@ -506,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -528,7 +542,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -538,7 +552,9 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -547,7 +563,9 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
